--- a/macetasInfo.xlsx
+++ b/macetasInfo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="136">
   <si>
     <t>Titulo</t>
   </si>
@@ -367,9 +367,6 @@
     <t>034G</t>
   </si>
   <si>
-    <t>034g</t>
-  </si>
-  <si>
     <t>Redonda2g</t>
   </si>
   <si>
@@ -379,9 +376,6 @@
     <t>039G</t>
   </si>
   <si>
-    <t>039g</t>
-  </si>
-  <si>
     <t>Bosque0g</t>
   </si>
   <si>
@@ -391,9 +385,6 @@
     <t>047G</t>
   </si>
   <si>
-    <t>047g</t>
-  </si>
-  <si>
     <t>Ov20g</t>
   </si>
   <si>
@@ -403,9 +394,6 @@
     <t>003G</t>
   </si>
   <si>
-    <t>003g</t>
-  </si>
-  <si>
     <t>Redonda1g</t>
   </si>
   <si>
@@ -413,9 +401,6 @@
   </si>
   <si>
     <t>038G</t>
-  </si>
-  <si>
-    <t>038g</t>
   </si>
   <si>
     <t>Gs1g</t>
@@ -1733,110 +1718,110 @@
       <c r="D55" s="6">
         <v>170.0</v>
       </c>
-      <c r="E55" s="6" t="s">
-        <v>118</v>
+      <c r="E55" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="C56" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="D56" s="6">
         <v>120.0</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>122</v>
+      <c r="E56" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="D57" s="6">
         <v>85.0</v>
       </c>
-      <c r="E57" s="6" t="s">
-        <v>126</v>
+      <c r="E57" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D58" s="6">
         <v>240.0</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>130</v>
+      <c r="E58" s="8" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D59" s="6">
         <v>95.0</v>
       </c>
-      <c r="E59" s="6" t="s">
-        <v>134</v>
+      <c r="E59" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D60" s="6">
         <v>215.0</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D61" s="10">
         <v>780.0</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/macetasInfo.xlsx
+++ b/macetasInfo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="155">
   <si>
     <t>Titulo</t>
   </si>
@@ -361,22 +361,43 @@
     <t>oa32</t>
   </si>
   <si>
-    <t>Modelos A</t>
-  </si>
-  <si>
-    <t>lagosa</t>
-  </si>
-  <si>
-    <t>49A</t>
+    <t>Modelos A1</t>
+  </si>
+  <si>
+    <t>lagosa1</t>
+  </si>
+  <si>
+    <t>49A1</t>
   </si>
   <si>
     <t>LAG</t>
   </si>
   <si>
+    <t>Modelos A2</t>
+  </si>
+  <si>
+    <t>lagosa2</t>
+  </si>
+  <si>
+    <t>49A2</t>
+  </si>
+  <si>
+    <t>Modelos A3</t>
+  </si>
+  <si>
+    <t>lagosa3</t>
+  </si>
+  <si>
+    <t>49A3</t>
+  </si>
+  <si>
     <t>Modelos B</t>
   </si>
   <si>
     <t>lagosb</t>
+  </si>
+  <si>
+    <t>49B</t>
   </si>
   <si>
     <t>Babe</t>
@@ -461,7 +482,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -485,6 +506,9 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <name val="Arial"/>
+    </font>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -518,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -550,6 +574,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -997,7 +1027,7 @@
         <v>250.0</v>
       </c>
       <c r="E11" s="8" t="str">
-        <f t="shared" ref="E11:E54" si="2">"0"&amp;C11</f>
+        <f t="shared" ref="E11:E56" si="2">"0"&amp;C11</f>
         <v>010</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -1824,127 +1854,129 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="12">
         <v>70.0</v>
       </c>
       <c r="E51" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>049A</v>
+        <v>049A1</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" s="10">
-        <v>110.0</v>
+      <c r="C52" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="12">
+        <v>70.0</v>
       </c>
       <c r="E52" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>049A</v>
+        <v>049A2</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B53" s="6" t="s">
+      <c r="A53" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="7">
-        <v>50.0</v>
-      </c>
-      <c r="D53" s="7">
-        <v>40.0</v>
+      <c r="B53" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="12">
+        <v>70.0</v>
       </c>
       <c r="E53" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>050</v>
+        <v>049A3</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="7">
-        <v>51.0</v>
-      </c>
-      <c r="D54" s="7">
-        <v>830.0</v>
+        <v>127</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="12">
+        <v>110.0</v>
       </c>
       <c r="E54" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>051</v>
+        <v>049B</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
+      </c>
+      <c r="C55" s="7">
+        <v>50.0</v>
       </c>
       <c r="D55" s="7">
-        <v>170.0</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>128</v>
+        <v>40.0</v>
+      </c>
+      <c r="E55" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>050</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" s="7" t="s">
         <v>132</v>
       </c>
+      <c r="C56" s="7">
+        <v>51.0</v>
+      </c>
       <c r="D56" s="7">
-        <v>120.0</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>132</v>
+        <v>830.0</v>
+      </c>
+      <c r="E56" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>051</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57">
@@ -1958,93 +1990,133 @@
         <v>135</v>
       </c>
       <c r="D57" s="7">
-        <v>85.0</v>
+        <v>170.0</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>135</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F58" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D58" s="7">
-        <v>240.0</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D59" s="7">
-        <v>95.0</v>
+        <v>85.0</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D60" s="7">
-        <v>215.0</v>
+        <v>240.0</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B61" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="B61" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D61" s="11">
+      <c r="C61" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" s="7">
+        <v>95.0</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="7">
+        <v>215.0</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" s="13">
         <v>780.0</v>
       </c>
-      <c r="E61" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>129</v>
+      <c r="E63" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
